--- a/doc/人像分割与背景替换-测试用例.xlsx
+++ b/doc/人像分割与背景替换-测试用例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\5.1\Huawei Ascend\portrait_c73\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\Python\portrait_c73\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0830530B-F5BD-4B6B-B643-BACF78C6B6A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FAABE4-D4C8-4F94-A93C-2536B797B7DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>特性_名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,32 +67,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>硬件连接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证Atlas200DK与ubuntu主机正确连接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>应用执行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、 执行步骤1，Atlas200DK能够回应，窗口中不断显示“64 bytes from 192.168.1.2: icmp_seq=…”等字样；
-2、 执行步骤2，正确输入密码后能够以HwHiAiUser用户进入Atlas200DK系统
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、 在连接Atlas 200DK的Ubuntu主机的命令行窗口中,输入:
-ping 192.168.1.2
-2、 通过ssh连接Atlas 200DK，输入：
-ssh HwHiAiUser@192.168.1.2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -107,11 +86,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1、 Atlas 200DK启动；
-2、 Atlas 200DK与Ubuntu主机通过USB方式进行连接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1、 打开项目的script目录，执行bash run_presenter_server.sh；
 2、 登录Atlas200DK系统并进入人像分割与背景替换项目的out文件夹内，执行：./run.sh
 3、 通过presenter查看人像分割效果是否达到预期</t>
@@ -121,6 +95,106 @@
     <t>1、 能够在Ubuntu主机的浏览器查看presenter；
 2、 终端中实时显示系统运行情况；
 3、 肉眼查看分割效果，并用Tensorflow运行保存下来的原图，比较mask是否一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证人像处在不同位置时的分割效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 打开项目的script目录，执行bash run_presenter_server.sh；
+2、 登录Atlas200DK系统并进入人像分割与背景替换项目的out文件夹内，执行：./run.sh
+3、 通过presenter查看人像分割效果在人像处于摄像头视野左侧、中间和右侧时是否达到预期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、 presenter启动；
+4、 代码正确部署至Atlas 200DK
+5、 人像分别处于摄像头视野的左侧、中间和右侧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 能够在Ubuntu主机的浏览器查看presenter；
+2、 肉眼查看不同位置时的分割效果是否正常，也可在文件夹中查看mask结果是否正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同位置时人像分割效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同光照条件时人像分割效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证人像处在不同光照条件时的分割效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、 presenter启动；
+4、 代码正确部署至Atlas 200DK
+5、 人像分别在明亮和暗淡的光照条件下进行测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 打开项目的script目录，执行bash run_presenter_server.sh；
+2、 登录Atlas200DK系统并进入人像分割与背景替换项目的out文件夹内，执行：./run.sh
+3、 通过presenter查看人像分割效果在人像处于明亮和暗淡光照条件时是否达到预期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 能够在Ubuntu主机的浏览器查看presenter；
+2、 肉眼查看不同光照条件时的分割效果是否正常，也可在文件夹中查看mask结果是否正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 能够在Ubuntu主机的浏览器查看presenter；
+2、 肉眼查看不同距离时的分割效果是否正常，也可在文件夹中查看mask结果是否正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 能够在Ubuntu主机的浏览器查看presenter；
+2、 肉眼查看在摄像头倾斜时的分割效果是否正常，也可在文件夹中查看mask结果是否正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 打开项目的script目录，执行bash run_presenter_server.sh；
+2、 登录Atlas200DK系统并进入人像分割与背景替换项目的out文件夹内，执行：./run.sh
+3、 通过presenter查看人像分割效果在摄像头倾斜时是否达到预期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 打开项目的script目录，执行bash run_presenter_server.sh；
+2、 登录Atlas200DK系统并进入人像分割与背景替换项目的out文件夹内，执行：./run.sh
+3、 通过presenter查看人像分割效果在人像与摄像头距离正常和较近时是否达到预期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、 presenter启动；
+4、 代码正确部署至Atlas 200DK
+5、 人像分别与摄像头相距正常或较近</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证人像处在不同距离时的分割效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同距离时人像分割效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头倾斜时人像分割效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证摄像头倾斜时的人像分割效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、 presenter启动；
+4、 代码正确部署至Atlas 200DK
+5、 人像分别处于摄像头正常和倾斜情况</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +304,61 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="33"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="33"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -723,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -781,32 +909,32 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -814,85 +942,198 @@
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A3 A5:A7">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="A2">
+    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
       <formula>EXACT($A2,".")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
       <formula>EXACT($A2,"..")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="36" stopIfTrue="1">
       <formula>EXACT($A2,"...")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="31" stopIfTrue="1">
       <formula>EXACT($A8,".")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="32" stopIfTrue="1">
       <formula>EXACT($A8,"..")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
       <formula>EXACT($A8,"...")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
       <formula>EXACT($A9,".")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="29" stopIfTrue="1">
       <formula>EXACT($A9,"..")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
       <formula>EXACT($A9,"...")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
       <formula>EXACT($A10,".")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
       <formula>EXACT($A10,"..")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
       <formula>EXACT($A10,"...")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
       <formula>EXACT($A11,".")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
       <formula>EXACT($A11,"..")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="24" stopIfTrue="1">
       <formula>EXACT($A11,"...")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+      <formula>EXACT($A4,".")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>EXACT($A4,"..")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+      <formula>EXACT($A4,"...")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+      <formula>EXACT($A3,".")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>EXACT($A3,"..")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>EXACT($A3,"...")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+      <formula>EXACT($A5,".")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>EXACT($A5,"..")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+      <formula>EXACT($A5,"...")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>EXACT($A6,".")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>EXACT($A6,"..")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>EXACT($A6,"...")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>EXACT($A4,".")</formula>
+      <formula>EXACT($A7,".")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>EXACT($A4,"..")</formula>
+      <formula>EXACT($A7,"..")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>EXACT($A4,"...")</formula>
+      <formula>EXACT($A7,"...")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
